--- a/xlsx_files/Ørsted-1.xlsx
+++ b/xlsx_files/Ørsted-1.xlsx
@@ -11058,14 +11058,6 @@
           <t>Lead Protection Manager</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[SGD]
-Min:8500.0
-Max:14500.0
-type:monthly</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -11765,14 +11757,6 @@
           <t>Innovation Specialist, North America Ventures &amp; Open Innovation, Onshore</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:129600.0
-Max:145800.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -11848,14 +11832,6 @@
       <c r="D7" t="inlineStr">
         <is>
           <t>Labor Relations Specialist</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:110.0
-Max:110.0
-type:daily</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
